--- a/docs/GerenciamentoDeRiscos/Gerenciamento de Riscos.xlsx
+++ b/docs/GerenciamentoDeRiscos/Gerenciamento de Riscos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Risco</t>
   </si>
@@ -24,6 +24,12 @@
     <t>Sprint 4</t>
   </si>
   <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
     <t>Probabilidade</t>
   </si>
   <si>
@@ -81,7 +87,7 @@
     <t>Produtividade baixa por motivo de ferias</t>
   </si>
   <si>
-    <t>Sprint 5</t>
+    <t>Alteração no prazo de entrega por motivo de Greve</t>
   </si>
   <si>
     <t>Descobrir quais sprints serão atrapalhados e redistribuir os pontos para outros sprints.</t>
@@ -123,6 +129,9 @@
     <t>Montar um cronograma levando em consideração essa semana de ferias.</t>
   </si>
   <si>
+    <t>Acompanhar o desenrolar da Greve.</t>
+  </si>
+  <si>
     <t>Refazer o cronograma de tarefas ajustando para os sprints que restarem.</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
   </si>
   <si>
     <t>Por ser uma “folga” planejada, a equipe conseguiu se organizar para que a falta de um membro não prejudicasse o andamento do projeto</t>
+  </si>
+  <si>
+    <t>Se for adiantado, negociar com o professor para entregar por email na data inicial.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +253,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -313,6 +337,15 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -326,12 +359,25 @@
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -357,7 +403,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -367,7 +413,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -388,58 +434,91 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -462,10 +541,12 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffea9999"/>
+      <rgbColor rgb="ff00e4f8"/>
       <rgbColor rgb="ffffe599"/>
       <rgbColor rgb="ffb6d7a8"/>
       <rgbColor rgb="ff00e4f8"/>
       <rgbColor rgb="ffcf7b79"/>
+      <rgbColor rgb="ffb6d6a8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -603,13 +684,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -708,10 +783,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -966,13 +1041,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1285,10 +1354,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1542,11 +1611,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="84.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
@@ -1558,7 +1627,10 @@
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -1576,42 +1648,58 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="I1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" t="s" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="E2" t="s" s="2">
-        <v>3</v>
-      </c>
       <c r="F2" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>3</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>5</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1633,20 +1721,30 @@
         <f>E3*F3</f>
         <v>0.4</v>
       </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="12">
         <f>H3*I3</f>
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M3" s="13">
+        <f>K3*L3</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6">
         <v>0.2</v>
@@ -1654,7 +1752,7 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <f>B4*C4</f>
         <v>0.2</v>
       </c>
@@ -1664,7 +1762,7 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <f>E4*F4</f>
         <v>0.2</v>
       </c>
@@ -1674,14 +1772,24 @@
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="14">
         <f>H4*I4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <f>K4*L4</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6">
         <v>0.2</v>
@@ -1689,7 +1797,7 @@
       <c r="C5" s="7">
         <v>0.6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="14">
         <f>B5*C5</f>
         <v>0.12</v>
       </c>
@@ -1699,7 +1807,7 @@
       <c r="F5" s="7">
         <v>0.6</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="14">
         <f>E5*F5</f>
         <v>0.12</v>
       </c>
@@ -1709,14 +1817,24 @@
       <c r="I5" s="7">
         <v>0.6</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="14">
         <f>H5*I5</f>
         <v>0.12</v>
       </c>
+      <c r="K5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="15">
+        <f>K5*L5</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <v>0.4</v>
@@ -1724,7 +1842,7 @@
       <c r="C6" s="7">
         <v>0.2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="16">
         <f>B6*C6</f>
         <v>0.08000000000000002</v>
       </c>
@@ -1734,7 +1852,7 @@
       <c r="F6" s="7">
         <v>0.2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="16">
         <f>E6*F6</f>
         <v>0.08000000000000002</v>
       </c>
@@ -1744,14 +1862,24 @@
       <c r="I6" s="7">
         <v>0.2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="17">
         <f>H6*I6</f>
         <v>0.08000000000000002</v>
       </c>
+      <c r="K6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="18">
+        <f>K6*L6</f>
+        <v>0.08000000000000002</v>
+      </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6">
         <v>0.4</v>
@@ -1763,30 +1891,40 @@
         <f>B7*C7</f>
         <v>0.3200000000000001</v>
       </c>
-      <c r="E7" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="20">
         <v>0.8</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="21">
         <f>E7*F7</f>
         <v>0.3200000000000001</v>
       </c>
-      <c r="H7" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="H7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
         <f>H7*I7</f>
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22">
+        <f>K7*L7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>0.2</v>
@@ -1794,7 +1932,7 @@
       <c r="C8" s="7">
         <v>0.8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <f>B8*C8</f>
         <v>0.16</v>
       </c>
@@ -1804,7 +1942,7 @@
       <c r="F8" s="7">
         <v>0.8</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="14">
         <f>E8*F8</f>
         <v>0.16</v>
       </c>
@@ -1814,14 +1952,24 @@
       <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="23">
         <f>H8*I8</f>
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="24">
+        <f>K8*L8</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>0.2</v>
@@ -1829,7 +1977,7 @@
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <f>B9*C9</f>
         <v>0.2</v>
       </c>
@@ -1839,7 +1987,7 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="14">
         <f>E9*F9</f>
         <v>0.2</v>
       </c>
@@ -1849,14 +1997,24 @@
       <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="14">
         <f>H9*I9</f>
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <f>K9*L9</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>0.6</v>
@@ -1864,7 +2022,7 @@
       <c r="C10" s="7">
         <v>0.4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="14">
         <f>B10*C10</f>
         <v>0.24</v>
       </c>
@@ -1874,24 +2032,34 @@
       <c r="F10" s="7">
         <v>0.4</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="14">
         <f>E10*F10</f>
         <v>0.24</v>
       </c>
       <c r="H10" s="9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="7">
         <v>0.4</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="14">
         <f>H10*I10</f>
-        <v>0.24</v>
+        <v>0.16</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="25">
+        <f>K10*L10</f>
+        <v>0.08000000000000002</v>
       </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6">
         <v>0.6</v>
@@ -1914,19 +2082,29 @@
         <v>0.36</v>
       </c>
       <c r="H11" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="7">
         <v>0.6</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="14">
         <f>H11*I11</f>
-        <v>0.24</v>
+        <v>0.12</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="25">
+        <f>K11*L11</f>
+        <v>0.08000000000000002</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6">
         <v>0.8</v>
@@ -1958,10 +2136,20 @@
         <f>H12*I12</f>
         <v>0.6400000000000001</v>
       </c>
+      <c r="K12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="26">
+        <f>K12*L12</f>
+        <v>0.6400000000000001</v>
+      </c>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1969,7 +2157,7 @@
       <c r="C13" s="7">
         <v>0.2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="14">
         <f>B13*C13</f>
         <v>0.2</v>
       </c>
@@ -1979,7 +2167,7 @@
       <c r="F13" s="7">
         <v>0.2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="14">
         <f>E13*F13</f>
         <v>0.2</v>
       </c>
@@ -1989,14 +2177,17 @@
       <c r="I13" s="7">
         <v>0.2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="14">
         <f>H13*I13</f>
         <v>0.08000000000000002</v>
       </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -2028,10 +2219,20 @@
         <f>H14*I14</f>
         <v>0.4</v>
       </c>
+      <c r="K14" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M14" s="24">
+        <f>K14*L14</f>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2063,10 +2264,20 @@
         <f>H15*I15</f>
         <v>1</v>
       </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <f>K15*L15</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2074,7 +2285,7 @@
       <c r="C16" s="7">
         <v>0.2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14">
         <f>B16*C16</f>
         <v>0.2</v>
       </c>
@@ -2084,7 +2295,7 @@
       <c r="F16" s="7">
         <v>0.2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="14">
         <f>E16*F16</f>
         <v>0.16</v>
       </c>
@@ -2094,14 +2305,24 @@
       <c r="I16" s="7">
         <v>0.2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="14">
         <f>H16*I16</f>
         <v>0.12</v>
       </c>
+      <c r="K16" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="25">
+        <f>K16*L16</f>
+        <v>0.04000000000000001</v>
+      </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6">
         <v>0.8</v>
@@ -2123,20 +2344,30 @@
         <f>E17*F17</f>
         <v>0.3200000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="10">
         <v>0.8</v>
       </c>
-      <c r="I17" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="I17" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J17" s="12">
         <f>H17*I17</f>
         <v>0.3200000000000001</v>
       </c>
+      <c r="K17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M17" s="15">
+        <f>K17*L17</f>
+        <v>0.3200000000000001</v>
+      </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2148,13 +2379,13 @@
         <f>B18*C18</f>
         <v>0.6</v>
       </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20">
         <v>0.6</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="30">
         <f>E18*F18</f>
         <v>0.6</v>
       </c>
@@ -2168,21 +2399,43 @@
         <f>H18*I18</f>
         <v>0.6</v>
       </c>
+      <c r="K18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="15">
+        <f>K18*L18</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" t="s" s="5">
+        <v>24</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="32">
+        <f>K19*L19</f>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2192,9 +2445,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2204,11 +2460,14 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2223,18 +2482,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="84.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="89.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="89.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="89.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="89.5" style="22" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="22" customWidth="1"/>
+    <col min="1" max="1" width="84.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="89.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="89.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="89.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="89.5" style="34" customWidth="1"/>
+    <col min="7" max="256" width="14.5" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -2251,266 +2511,315 @@
         <v>2</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s" s="24">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="35">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="24">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s" s="35">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="24">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s" s="35">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s" s="24">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s" s="35">
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s" s="24">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s" s="35">
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="24">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="24">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s" s="24">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s" s="24">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="35">
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s" s="24">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s" s="35">
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s" s="24">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s" s="35">
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s" s="24">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="35">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s" s="24">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s" s="35">
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s" s="24">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s" s="35">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s" s="24">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s" s="24">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s" s="24">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s" s="24">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="35">
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" t="s" s="35">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2526,18 +2835,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="85.1719" style="26" customWidth="1"/>
-    <col min="2" max="2" width="122.852" style="26" customWidth="1"/>
-    <col min="3" max="3" width="135.172" style="26" customWidth="1"/>
-    <col min="4" max="4" width="135.172" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="26" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="85.1719" style="36" customWidth="1"/>
+    <col min="2" max="2" width="122.852" style="36" customWidth="1"/>
+    <col min="3" max="3" width="135.172" style="36" customWidth="1"/>
+    <col min="4" max="4" width="135.172" style="36" customWidth="1"/>
+    <col min="5" max="5" width="122.852" style="36" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -2551,250 +2860,293 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="E1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="24">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s" s="24">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="24">
-        <v>36</v>
-      </c>
-      <c r="E3" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="37">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s" s="35">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="24">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s" s="24">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="24">
-        <v>37</v>
-      </c>
-      <c r="E4" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s" s="35">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s" s="35">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="24">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="27">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="24">
-        <v>39</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="38">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s" s="35">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="35">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="35">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="35">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s" s="35">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s" s="35">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s" s="35">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="35">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="24">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s" s="24">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s" s="24">
-        <v>45</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s" s="35">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s" s="35">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s" s="24">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s" s="24">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s" s="24">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s" s="35">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s" s="35">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s" s="24">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s" s="24">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s" s="24">
-        <v>49</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="35">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s" s="35">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s" s="35">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s" s="35">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="E17" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s" s="35">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s" s="35">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s" s="37">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s" s="35">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s" s="24">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s" s="27">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s" s="24">
-        <v>51</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s" s="35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" t="s" s="35">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
